--- a/Code/Results/Cases/Case_1_210/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_210/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9888531771675138</v>
+        <v>1.018126368627203</v>
       </c>
       <c r="D2">
-        <v>1.033620534438377</v>
+        <v>1.033750616651499</v>
       </c>
       <c r="E2">
-        <v>0.9968798989041637</v>
+        <v>1.019437735780974</v>
       </c>
       <c r="F2">
-        <v>0.965106419131387</v>
+        <v>1.016500239982106</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046362899764735</v>
+        <v>1.033004278808795</v>
       </c>
       <c r="J2">
-        <v>1.011372477308967</v>
+        <v>1.023336572893786</v>
       </c>
       <c r="K2">
-        <v>1.044630539644146</v>
+        <v>1.036552066835184</v>
       </c>
       <c r="L2">
-        <v>1.008382873522025</v>
+        <v>1.022280984482213</v>
       </c>
       <c r="M2">
-        <v>0.9770742756858635</v>
+        <v>1.01935222567328</v>
       </c>
       <c r="N2">
-        <v>1.007838588325049</v>
+        <v>1.011878424093096</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9931299977708652</v>
+        <v>1.019002730153416</v>
       </c>
       <c r="D3">
-        <v>1.03629205707789</v>
+        <v>1.034281418323099</v>
       </c>
       <c r="E3">
-        <v>1.000258355530497</v>
+        <v>1.020178580846987</v>
       </c>
       <c r="F3">
-        <v>0.9721098626082378</v>
+        <v>1.018016794697574</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047620356693354</v>
+        <v>1.033182753010039</v>
       </c>
       <c r="J3">
-        <v>1.013809714304163</v>
+        <v>1.023849504065007</v>
       </c>
       <c r="K3">
-        <v>1.046480713873129</v>
+        <v>1.036892656286116</v>
       </c>
       <c r="L3">
-        <v>1.01088793171637</v>
+        <v>1.022828033653078</v>
       </c>
       <c r="M3">
-        <v>0.9831124949481315</v>
+        <v>1.020672206734843</v>
       </c>
       <c r="N3">
-        <v>1.00864972197338</v>
+        <v>1.0120484931492</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9958356749522217</v>
+        <v>1.019569721580501</v>
       </c>
       <c r="D4">
-        <v>1.03798277153361</v>
+        <v>1.034624434110795</v>
       </c>
       <c r="E4">
-        <v>1.002401558772114</v>
+        <v>1.020658300281357</v>
       </c>
       <c r="F4">
-        <v>0.9765271840187658</v>
+        <v>1.018997990295555</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048402851240076</v>
+        <v>1.033296583308165</v>
       </c>
       <c r="J4">
-        <v>1.015346507801502</v>
+        <v>1.024180721593766</v>
       </c>
       <c r="K4">
-        <v>1.047643411550141</v>
+        <v>1.037111882458369</v>
       </c>
       <c r="L4">
-        <v>1.01247108525524</v>
+        <v>1.023181691898176</v>
       </c>
       <c r="M4">
-        <v>0.9869174113810862</v>
+        <v>1.021525725634811</v>
       </c>
       <c r="N4">
-        <v>1.009161137957998</v>
+        <v>1.012158286931183</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9969589263085356</v>
+        <v>1.019808066971531</v>
       </c>
       <c r="D5">
-        <v>1.038684705503455</v>
+        <v>1.034768529018679</v>
       </c>
       <c r="E5">
-        <v>1.003292671863189</v>
+        <v>1.020860055723486</v>
       </c>
       <c r="F5">
-        <v>0.9783582373790261</v>
+        <v>1.019410461683252</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048724520443222</v>
+        <v>1.033344040912284</v>
       </c>
       <c r="J5">
-        <v>1.015983268280274</v>
+        <v>1.024319801631232</v>
       </c>
       <c r="K5">
-        <v>1.048124152176543</v>
+        <v>1.037203766845779</v>
       </c>
       <c r="L5">
-        <v>1.013127911967718</v>
+        <v>1.023330293002031</v>
       </c>
       <c r="M5">
-        <v>0.9884937139076103</v>
+        <v>1.021884405986954</v>
       </c>
       <c r="N5">
-        <v>1.009373027151145</v>
+        <v>1.012204383725038</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9971467071870814</v>
+        <v>1.019848085158283</v>
       </c>
       <c r="D6">
-        <v>1.03880205152149</v>
+        <v>1.034792716753799</v>
       </c>
       <c r="E6">
-        <v>1.003441724293416</v>
+        <v>1.020893936100722</v>
       </c>
       <c r="F6">
-        <v>0.9786641939577075</v>
+        <v>1.019479716217703</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048778107265089</v>
+        <v>1.033351985976054</v>
       </c>
       <c r="J6">
-        <v>1.016089646616916</v>
+        <v>1.024343144168324</v>
       </c>
       <c r="K6">
-        <v>1.048204403720095</v>
+        <v>1.03721917828798</v>
       </c>
       <c r="L6">
-        <v>1.013237692875852</v>
+        <v>1.023355239264082</v>
       </c>
       <c r="M6">
-        <v>0.9887570495549206</v>
+        <v>1.021944621960519</v>
       </c>
       <c r="N6">
-        <v>1.009408424913398</v>
+        <v>1.012212120027622</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9958507390328484</v>
+        <v>1.019572906433641</v>
       </c>
       <c r="D7">
-        <v>1.037992185244924</v>
+        <v>1.03462635994404</v>
       </c>
       <c r="E7">
-        <v>1.002413504244779</v>
+        <v>1.020660995828602</v>
       </c>
       <c r="F7">
-        <v>0.9765517509923323</v>
+        <v>1.019003501843909</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048407177833361</v>
+        <v>1.033297218998303</v>
       </c>
       <c r="J7">
-        <v>1.015355052374657</v>
+        <v>1.024182580632023</v>
       </c>
       <c r="K7">
-        <v>1.047649866634463</v>
+        <v>1.037113111316928</v>
       </c>
       <c r="L7">
-        <v>1.012479895709505</v>
+        <v>1.023183677815798</v>
       </c>
       <c r="M7">
-        <v>0.986938563997501</v>
+        <v>1.021530518880472</v>
       </c>
       <c r="N7">
-        <v>1.009163981314287</v>
+        <v>1.012158903116724</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9903116736057475</v>
+        <v>1.018422554056181</v>
       </c>
       <c r="D8">
-        <v>1.034531392727408</v>
+        <v>1.033930095454196</v>
       </c>
       <c r="E8">
-        <v>0.9980307777801827</v>
+        <v>1.019688036338805</v>
       </c>
       <c r="F8">
-        <v>0.9674978190980222</v>
+        <v>1.017012793746039</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046794421320167</v>
+        <v>1.033064937219851</v>
       </c>
       <c r="J8">
-        <v>1.012204695613421</v>
+        <v>1.023510061709567</v>
       </c>
       <c r="K8">
-        <v>1.045263079611687</v>
+        <v>1.036667409758931</v>
       </c>
       <c r="L8">
-        <v>1.009237489671144</v>
+        <v>1.022465928143746</v>
       </c>
       <c r="M8">
-        <v>0.9791368262190058</v>
+        <v>1.019798445472985</v>
       </c>
       <c r="N8">
-        <v>1.008115565097059</v>
+        <v>1.011935951890621</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9800515619951935</v>
+        <v>1.016394939374603</v>
       </c>
       <c r="D9">
-        <v>1.028130922636509</v>
+        <v>1.032699823777113</v>
       </c>
       <c r="E9">
-        <v>0.9899612413783366</v>
+        <v>1.017976218183439</v>
       </c>
       <c r="F9">
-        <v>0.9505993133591547</v>
+        <v>1.01350380723886</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043705664081158</v>
+        <v>1.032642981026125</v>
       </c>
       <c r="J9">
-        <v>1.006328965428518</v>
+        <v>1.022319774740211</v>
       </c>
       <c r="K9">
-        <v>1.040783506569591</v>
+        <v>1.035873204870938</v>
       </c>
       <c r="L9">
-        <v>1.003219317653744</v>
+        <v>1.021198735064436</v>
       </c>
       <c r="M9">
-        <v>0.9645481807789569</v>
+        <v>1.01674156023991</v>
       </c>
       <c r="N9">
-        <v>1.006159947968512</v>
+        <v>1.011541156265519</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9728348232748627</v>
+        <v>1.015042843025555</v>
       </c>
       <c r="D10">
-        <v>1.02364343597783</v>
+        <v>1.031877473104138</v>
       </c>
       <c r="E10">
-        <v>0.9843209961812391</v>
+        <v>1.016836837199394</v>
       </c>
       <c r="F10">
-        <v>0.9385930092696699</v>
+        <v>1.011163444277682</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041468053571761</v>
+        <v>1.03235320717016</v>
       </c>
       <c r="J10">
-        <v>1.002169287688302</v>
+        <v>1.021522750041365</v>
       </c>
       <c r="K10">
-        <v>1.037598531408935</v>
+        <v>1.035337865934529</v>
       </c>
       <c r="L10">
-        <v>0.9989792303127876</v>
+        <v>1.020352330381798</v>
       </c>
       <c r="M10">
-        <v>0.9541671624275749</v>
+        <v>1.014700192941777</v>
       </c>
       <c r="N10">
-        <v>1.004775516272596</v>
+        <v>1.011276669561317</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9696104274580418</v>
+        <v>1.014457288683784</v>
       </c>
       <c r="D11">
-        <v>1.021643719893361</v>
+        <v>1.031520890858011</v>
       </c>
       <c r="E11">
-        <v>0.9818100743851015</v>
+        <v>1.016343915235058</v>
       </c>
       <c r="F11">
-        <v>0.9331914216306775</v>
+        <v>1.010149728582304</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040453714365273</v>
+        <v>1.03222572955288</v>
       </c>
       <c r="J11">
-        <v>1.000304470409044</v>
+        <v>1.02117680107701</v>
       </c>
       <c r="K11">
-        <v>1.036168693026649</v>
+        <v>1.03510467902914</v>
       </c>
       <c r="L11">
-        <v>0.9970833767991167</v>
+        <v>1.019985450147218</v>
       </c>
       <c r="M11">
-        <v>0.9494937039624169</v>
+        <v>1.013815385425596</v>
       </c>
       <c r="N11">
-        <v>1.004154913280246</v>
+        <v>1.011161839062598</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9683968406353626</v>
+        <v>1.014239774612262</v>
       </c>
       <c r="D12">
-        <v>1.020892031312424</v>
+        <v>1.031388366893286</v>
       </c>
       <c r="E12">
-        <v>0.9808664472994953</v>
+        <v>1.016160888404526</v>
       </c>
       <c r="F12">
-        <v>0.9311519518557194</v>
+        <v>1.009773135108651</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040069823500195</v>
+        <v>1.032178078144166</v>
       </c>
       <c r="J12">
-        <v>0.9996016529374685</v>
+        <v>1.021048175279749</v>
       </c>
       <c r="K12">
-        <v>1.035629627767652</v>
+        <v>1.035017856448413</v>
       </c>
       <c r="L12">
-        <v>0.9963696316440589</v>
+        <v>1.019849117442928</v>
       </c>
       <c r="M12">
-        <v>0.9477287558502924</v>
+        <v>1.013486591092259</v>
       </c>
       <c r="N12">
-        <v>1.003921029717333</v>
+        <v>1.011119139984594</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9686578950242539</v>
+        <v>1.014286432711688</v>
       </c>
       <c r="D13">
-        <v>1.021053680840563</v>
+        <v>1.031416797032638</v>
       </c>
       <c r="E13">
-        <v>0.9810693654094695</v>
+        <v>1.016200145269645</v>
       </c>
       <c r="F13">
-        <v>0.9315909672017877</v>
+        <v>1.009853918238817</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040152496602292</v>
+        <v>1.032188313125832</v>
       </c>
       <c r="J13">
-        <v>0.9997528784880306</v>
+        <v>1.021075771603331</v>
       </c>
       <c r="K13">
-        <v>1.035745625058313</v>
+        <v>1.035036489519148</v>
       </c>
       <c r="L13">
-        <v>0.9965231734791254</v>
+        <v>1.019878363848415</v>
       </c>
       <c r="M13">
-        <v>0.948108694581783</v>
+        <v>1.013557124890822</v>
       </c>
       <c r="N13">
-        <v>1.003971353991524</v>
+        <v>1.011128301158775</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9695104422248615</v>
+        <v>1.014439309170051</v>
       </c>
       <c r="D14">
-        <v>1.021581769176833</v>
+        <v>1.031509937875167</v>
       </c>
       <c r="E14">
-        <v>0.9817323013656548</v>
+        <v>1.016328784823504</v>
       </c>
       <c r="F14">
-        <v>0.9330235294110787</v>
+        <v>1.010118600390151</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040422128867323</v>
+        <v>1.032221796800878</v>
       </c>
       <c r="J14">
-        <v>1.000246585720554</v>
+        <v>1.021166171377125</v>
       </c>
       <c r="K14">
-        <v>1.03612429816466</v>
+        <v>1.035097506456038</v>
       </c>
       <c r="L14">
-        <v>0.9970245763720688</v>
+        <v>1.019974182005708</v>
       </c>
       <c r="M14">
-        <v>0.9493484184332404</v>
+        <v>1.013788210015382</v>
       </c>
       <c r="N14">
-        <v>1.004135650171598</v>
+        <v>1.011158310479884</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9700335874424462</v>
+        <v>1.014533499665089</v>
       </c>
       <c r="D15">
-        <v>1.021905949274989</v>
+        <v>1.031567315335912</v>
       </c>
       <c r="E15">
-        <v>0.982139285674639</v>
+        <v>1.016408052706061</v>
       </c>
       <c r="F15">
-        <v>0.9339017116751426</v>
+        <v>1.010281672426548</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040587305487128</v>
+        <v>1.0322423873871</v>
       </c>
       <c r="J15">
-        <v>1.000549412971477</v>
+        <v>1.021221853105846</v>
       </c>
       <c r="K15">
-        <v>1.036356545789301</v>
+        <v>1.035135073660084</v>
       </c>
       <c r="L15">
-        <v>0.9973322257900785</v>
+        <v>1.020033211182634</v>
       </c>
       <c r="M15">
-        <v>0.9501083376960535</v>
+        <v>1.013930570829765</v>
       </c>
       <c r="N15">
-        <v>1.00423642676021</v>
+        <v>1.011176794130125</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9730466399674057</v>
+        <v>1.015081702496184</v>
       </c>
       <c r="D16">
-        <v>1.023774924498748</v>
+        <v>1.031901127910938</v>
       </c>
       <c r="E16">
-        <v>0.984486137598469</v>
+        <v>1.016869560076421</v>
       </c>
       <c r="F16">
-        <v>0.9389470059902472</v>
+        <v>1.011230713949184</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041534390134167</v>
+        <v>1.032361625266491</v>
       </c>
       <c r="J16">
-        <v>1.002291660294177</v>
+        <v>1.02154569200986</v>
       </c>
       <c r="K16">
-        <v>1.037692328125517</v>
+        <v>1.035353312757208</v>
       </c>
       <c r="L16">
-        <v>0.999103745042993</v>
+        <v>1.020376671000465</v>
       </c>
       <c r="M16">
-        <v>0.9544733821825789</v>
+        <v>1.014758895700761</v>
       </c>
       <c r="N16">
-        <v>1.004816242659063</v>
+        <v>1.011284284040944</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9749093621452747</v>
+        <v>1.01542555221303</v>
       </c>
       <c r="D17">
-        <v>1.02493185595096</v>
+        <v>1.032110387209546</v>
       </c>
       <c r="E17">
-        <v>0.9859394373819986</v>
+        <v>1.017159169021778</v>
       </c>
       <c r="F17">
-        <v>0.9420557403225377</v>
+        <v>1.011825932045927</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042116107066719</v>
+        <v>1.032435883948799</v>
       </c>
       <c r="J17">
-        <v>1.003367093602739</v>
+        <v>1.021748604884998</v>
       </c>
       <c r="K17">
-        <v>1.038516418848899</v>
+        <v>1.035489839182159</v>
       </c>
       <c r="L17">
-        <v>1.000198573977788</v>
+        <v>1.020592012335036</v>
       </c>
       <c r="M17">
-        <v>0.957162206485368</v>
+        <v>1.015278242409156</v>
       </c>
       <c r="N17">
-        <v>1.005174159731979</v>
+        <v>1.011351627735422</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9759863249280865</v>
+        <v>1.015626105470093</v>
       </c>
       <c r="D18">
-        <v>1.025601241731001</v>
+        <v>1.0322323963724</v>
       </c>
       <c r="E18">
-        <v>0.9867805444534358</v>
+        <v>1.017328135194392</v>
       </c>
       <c r="F18">
-        <v>0.9438496386411039</v>
+        <v>1.012173081907604</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042451049681645</v>
+        <v>1.032479004429416</v>
       </c>
       <c r="J18">
-        <v>1.003988276294979</v>
+        <v>1.021866880252121</v>
       </c>
       <c r="K18">
-        <v>1.038992227393938</v>
+        <v>1.035569339364465</v>
       </c>
       <c r="L18">
-        <v>1.000831432295328</v>
+        <v>1.020717580473944</v>
       </c>
       <c r="M18">
-        <v>0.9587135002247018</v>
+        <v>1.015581083787574</v>
       </c>
       <c r="N18">
-        <v>1.005380901147326</v>
+        <v>1.011390878643835</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9763519522751053</v>
+        <v>1.015694487510222</v>
       </c>
       <c r="D19">
-        <v>1.025828575123098</v>
+        <v>1.032273990114074</v>
       </c>
       <c r="E19">
-        <v>0.9870662430826115</v>
+        <v>1.017385755427854</v>
       </c>
       <c r="F19">
-        <v>0.9444581001713821</v>
+        <v>1.012291445993514</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042564524891155</v>
+        <v>1.032493674588468</v>
       </c>
       <c r="J19">
-        <v>1.004199065672991</v>
+        <v>1.021907195477239</v>
       </c>
       <c r="K19">
-        <v>1.039153649655335</v>
+        <v>1.035596424219764</v>
       </c>
       <c r="L19">
-        <v>1.001046263322939</v>
+        <v>1.020760389711459</v>
       </c>
       <c r="M19">
-        <v>0.959239622283606</v>
+        <v>1.015684330642225</v>
       </c>
       <c r="N19">
-        <v>1.00545105649926</v>
+        <v>1.011404257178835</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9747105021979126</v>
+        <v>1.015388661267616</v>
       </c>
       <c r="D20">
-        <v>1.024808292881819</v>
+        <v>1.032087940646428</v>
       </c>
       <c r="E20">
-        <v>0.9857841969414102</v>
+        <v>1.017128092356013</v>
       </c>
       <c r="F20">
-        <v>0.9417242244365354</v>
+        <v>1.011762074002515</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042054147669595</v>
+        <v>1.03242793669082</v>
       </c>
       <c r="J20">
-        <v>1.00325234467994</v>
+        <v>1.021726842557091</v>
       </c>
       <c r="K20">
-        <v>1.038428507758598</v>
+        <v>1.035475204976872</v>
       </c>
       <c r="L20">
-        <v>1.00008170637279</v>
+        <v>1.020568912054157</v>
       </c>
       <c r="M20">
-        <v>0.9568755000693987</v>
+        <v>1.015222530225474</v>
       </c>
       <c r="N20">
-        <v>1.005135969437036</v>
+        <v>1.011344405448239</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9692598354102</v>
+        <v>1.014394291225071</v>
       </c>
       <c r="D21">
-        <v>1.021426509533649</v>
+        <v>1.03148251223369</v>
       </c>
       <c r="E21">
-        <v>0.9815373912352696</v>
+        <v>1.01629090184521</v>
       </c>
       <c r="F21">
-        <v>0.9326026111925638</v>
+        <v>1.010040659639959</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040342927927972</v>
+        <v>1.032211944985872</v>
       </c>
       <c r="J21">
-        <v>1.00010148612209</v>
+        <v>1.021139554345713</v>
       </c>
       <c r="K21">
-        <v>1.036013010970897</v>
+        <v>1.035079544183683</v>
       </c>
       <c r="L21">
-        <v>0.9968771937347444</v>
+        <v>1.01994596751944</v>
       </c>
       <c r="M21">
-        <v>0.9489841707086308</v>
+        <v>1.013720165039043</v>
       </c>
       <c r="N21">
-        <v>1.004087363510323</v>
+        <v>1.011149474749899</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9657402392695407</v>
+        <v>1.013769015444738</v>
       </c>
       <c r="D22">
-        <v>1.019248502713278</v>
+        <v>1.0311014311953</v>
       </c>
       <c r="E22">
-        <v>0.9788034877586601</v>
+        <v>1.015764911024117</v>
       </c>
       <c r="F22">
-        <v>0.9266745816126913</v>
+        <v>1.008958020894241</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039225655655716</v>
+        <v>1.032074403795034</v>
       </c>
       <c r="J22">
-        <v>0.9980614132413106</v>
+        <v>1.020769580044018</v>
       </c>
       <c r="K22">
-        <v>1.03444804988928</v>
+        <v>1.034829581806211</v>
       </c>
       <c r="L22">
-        <v>0.9948068801391183</v>
+        <v>1.019553967613325</v>
       </c>
       <c r="M22">
-        <v>0.943853406964632</v>
+        <v>1.012774770865377</v>
       </c>
       <c r="N22">
-        <v>1.00340849323934</v>
+        <v>1.01102664844196</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9676151578057083</v>
+        <v>1.014100493140297</v>
       </c>
       <c r="D23">
-        <v>1.020408153075446</v>
+        <v>1.031303489164581</v>
       </c>
       <c r="E23">
-        <v>0.9802590569536972</v>
+        <v>1.016043712105671</v>
       </c>
       <c r="F23">
-        <v>0.9298363810688525</v>
+        <v>1.009531980185711</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039821968550757</v>
+        <v>1.032147481627509</v>
       </c>
       <c r="J23">
-        <v>0.9991486954588874</v>
+        <v>1.020965778928385</v>
       </c>
       <c r="K23">
-        <v>1.03528216985817</v>
+        <v>1.034962204510688</v>
       </c>
       <c r="L23">
-        <v>0.9959098504605735</v>
+        <v>1.019761805373327</v>
       </c>
       <c r="M23">
-        <v>0.946590163657707</v>
+        <v>1.013276019450336</v>
       </c>
       <c r="N23">
-        <v>1.003770298119246</v>
+        <v>1.011091786153306</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9748003878336461</v>
+        <v>1.015405330723922</v>
       </c>
       <c r="D24">
-        <v>1.024864142473981</v>
+        <v>1.032098083431323</v>
       </c>
       <c r="E24">
-        <v>0.9858543636956286</v>
+        <v>1.017142134433265</v>
       </c>
       <c r="F24">
-        <v>0.9418740818728497</v>
+        <v>1.011790928797342</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04208215791567</v>
+        <v>1.03243152831205</v>
       </c>
       <c r="J24">
-        <v>1.003304213585199</v>
+        <v>1.021736676264274</v>
       </c>
       <c r="K24">
-        <v>1.038468246020148</v>
+        <v>1.035481817956493</v>
       </c>
       <c r="L24">
-        <v>1.000134531501632</v>
+        <v>1.020579350190447</v>
       </c>
       <c r="M24">
-        <v>0.9570051028895172</v>
+        <v>1.015247704423911</v>
       </c>
       <c r="N24">
-        <v>1.005153232233172</v>
+        <v>1.01134766898015</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9827672471575304</v>
+        <v>1.016919189657705</v>
       </c>
       <c r="D25">
-        <v>1.029823109251525</v>
+        <v>1.033018267631323</v>
       </c>
       <c r="E25">
-        <v>0.9920911830862331</v>
+        <v>1.018418444512464</v>
       </c>
       <c r="F25">
-        <v>0.9550901356515125</v>
+        <v>1.014411125661084</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044534657016372</v>
+        <v>1.032753562038509</v>
       </c>
       <c r="J25">
-        <v>1.007888813097875</v>
+        <v>1.022628110165565</v>
       </c>
       <c r="K25">
-        <v>1.04197545085763</v>
+        <v>1.03607956484805</v>
       </c>
       <c r="L25">
-        <v>1.004813526620602</v>
+        <v>1.021526620088533</v>
       </c>
       <c r="M25">
-        <v>0.9684280681297808</v>
+        <v>1.017532426973037</v>
       </c>
       <c r="N25">
-        <v>1.006679119012958</v>
+        <v>1.011643448133758</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_210/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_210/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.018126368627203</v>
+        <v>0.9888531771675135</v>
       </c>
       <c r="D2">
-        <v>1.033750616651499</v>
+        <v>1.033620534438377</v>
       </c>
       <c r="E2">
-        <v>1.019437735780974</v>
+        <v>0.9968798989041635</v>
       </c>
       <c r="F2">
-        <v>1.016500239982106</v>
+        <v>0.9651064191313864</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033004278808795</v>
+        <v>1.046362899764735</v>
       </c>
       <c r="J2">
-        <v>1.023336572893786</v>
+        <v>1.011372477308967</v>
       </c>
       <c r="K2">
-        <v>1.036552066835184</v>
+        <v>1.044630539644146</v>
       </c>
       <c r="L2">
-        <v>1.022280984482213</v>
+        <v>1.008382873522025</v>
       </c>
       <c r="M2">
-        <v>1.01935222567328</v>
+        <v>0.9770742756858629</v>
       </c>
       <c r="N2">
-        <v>1.011878424093096</v>
+        <v>1.007838588325049</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.019002730153416</v>
+        <v>0.9931299977708647</v>
       </c>
       <c r="D3">
-        <v>1.034281418323099</v>
+        <v>1.03629205707789</v>
       </c>
       <c r="E3">
-        <v>1.020178580846987</v>
+        <v>1.000258355530497</v>
       </c>
       <c r="F3">
-        <v>1.018016794697574</v>
+        <v>0.9721098626082375</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033182753010039</v>
+        <v>1.047620356693354</v>
       </c>
       <c r="J3">
-        <v>1.023849504065007</v>
+        <v>1.013809714304162</v>
       </c>
       <c r="K3">
-        <v>1.036892656286116</v>
+        <v>1.046480713873129</v>
       </c>
       <c r="L3">
-        <v>1.022828033653078</v>
+        <v>1.01088793171637</v>
       </c>
       <c r="M3">
-        <v>1.020672206734843</v>
+        <v>0.9831124949481314</v>
       </c>
       <c r="N3">
-        <v>1.0120484931492</v>
+        <v>1.00864972197338</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.019569721580501</v>
+        <v>0.9958356749522206</v>
       </c>
       <c r="D4">
-        <v>1.034624434110795</v>
+        <v>1.037982771533609</v>
       </c>
       <c r="E4">
-        <v>1.020658300281357</v>
+        <v>1.002401558772113</v>
       </c>
       <c r="F4">
-        <v>1.018997990295555</v>
+        <v>0.976527184018765</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033296583308165</v>
+        <v>1.048402851240076</v>
       </c>
       <c r="J4">
-        <v>1.024180721593766</v>
+        <v>1.015346507801501</v>
       </c>
       <c r="K4">
-        <v>1.037111882458369</v>
+        <v>1.04764341155014</v>
       </c>
       <c r="L4">
-        <v>1.023181691898176</v>
+        <v>1.012471085255239</v>
       </c>
       <c r="M4">
-        <v>1.021525725634811</v>
+        <v>0.9869174113810856</v>
       </c>
       <c r="N4">
-        <v>1.012158286931183</v>
+        <v>1.009161137957997</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.019808066971531</v>
+        <v>0.9969589263085346</v>
       </c>
       <c r="D5">
-        <v>1.034768529018679</v>
+        <v>1.038684705503455</v>
       </c>
       <c r="E5">
-        <v>1.020860055723486</v>
+        <v>1.003292671863189</v>
       </c>
       <c r="F5">
-        <v>1.019410461683252</v>
+        <v>0.9783582373790249</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.033344040912284</v>
+        <v>1.048724520443221</v>
       </c>
       <c r="J5">
-        <v>1.024319801631232</v>
+        <v>1.015983268280273</v>
       </c>
       <c r="K5">
-        <v>1.037203766845779</v>
+        <v>1.048124152176543</v>
       </c>
       <c r="L5">
-        <v>1.023330293002031</v>
+        <v>1.013127911967717</v>
       </c>
       <c r="M5">
-        <v>1.021884405986954</v>
+        <v>0.9884937139076094</v>
       </c>
       <c r="N5">
-        <v>1.012204383725038</v>
+        <v>1.009373027151145</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.019848085158283</v>
+        <v>0.9971467071870811</v>
       </c>
       <c r="D6">
-        <v>1.034792716753799</v>
+        <v>1.03880205152149</v>
       </c>
       <c r="E6">
-        <v>1.020893936100722</v>
+        <v>1.003441724293415</v>
       </c>
       <c r="F6">
-        <v>1.019479716217703</v>
+        <v>0.978664193957707</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.033351985976054</v>
+        <v>1.048778107265089</v>
       </c>
       <c r="J6">
-        <v>1.024343144168324</v>
+        <v>1.016089646616916</v>
       </c>
       <c r="K6">
-        <v>1.03721917828798</v>
+        <v>1.048204403720095</v>
       </c>
       <c r="L6">
-        <v>1.023355239264082</v>
+        <v>1.013237692875851</v>
       </c>
       <c r="M6">
-        <v>1.021944621960519</v>
+        <v>0.9887570495549202</v>
       </c>
       <c r="N6">
-        <v>1.012212120027622</v>
+        <v>1.009408424913398</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.019572906433641</v>
+        <v>0.9958507390328485</v>
       </c>
       <c r="D7">
-        <v>1.03462635994404</v>
+        <v>1.037992185244924</v>
       </c>
       <c r="E7">
-        <v>1.020660995828602</v>
+        <v>1.002413504244779</v>
       </c>
       <c r="F7">
-        <v>1.019003501843909</v>
+        <v>0.976551750992332</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033297218998303</v>
+        <v>1.048407177833361</v>
       </c>
       <c r="J7">
-        <v>1.024182580632023</v>
+        <v>1.015355052374657</v>
       </c>
       <c r="K7">
-        <v>1.037113111316928</v>
+        <v>1.047649866634463</v>
       </c>
       <c r="L7">
-        <v>1.023183677815798</v>
+        <v>1.012479895709505</v>
       </c>
       <c r="M7">
-        <v>1.021530518880472</v>
+        <v>0.986938563997501</v>
       </c>
       <c r="N7">
-        <v>1.012158903116724</v>
+        <v>1.009163981314287</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.018422554056181</v>
+        <v>0.9903116736057466</v>
       </c>
       <c r="D8">
-        <v>1.033930095454196</v>
+        <v>1.034531392727407</v>
       </c>
       <c r="E8">
-        <v>1.019688036338805</v>
+        <v>0.9980307777801818</v>
       </c>
       <c r="F8">
-        <v>1.017012793746039</v>
+        <v>0.967497819098021</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033064937219851</v>
+        <v>1.046794421320166</v>
       </c>
       <c r="J8">
-        <v>1.023510061709567</v>
+        <v>1.01220469561342</v>
       </c>
       <c r="K8">
-        <v>1.036667409758931</v>
+        <v>1.045263079611686</v>
       </c>
       <c r="L8">
-        <v>1.022465928143746</v>
+        <v>1.009237489671143</v>
       </c>
       <c r="M8">
-        <v>1.019798445472985</v>
+        <v>0.9791368262190047</v>
       </c>
       <c r="N8">
-        <v>1.011935951890621</v>
+        <v>1.008115565097058</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.016394939374603</v>
+        <v>0.9800515619951931</v>
       </c>
       <c r="D9">
-        <v>1.032699823777113</v>
+        <v>1.028130922636509</v>
       </c>
       <c r="E9">
-        <v>1.017976218183439</v>
+        <v>0.9899612413783361</v>
       </c>
       <c r="F9">
-        <v>1.01350380723886</v>
+        <v>0.9505993133591539</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032642981026125</v>
+        <v>1.043705664081157</v>
       </c>
       <c r="J9">
-        <v>1.022319774740211</v>
+        <v>1.006328965428517</v>
       </c>
       <c r="K9">
-        <v>1.035873204870938</v>
+        <v>1.04078350656959</v>
       </c>
       <c r="L9">
-        <v>1.021198735064436</v>
+        <v>1.003219317653743</v>
       </c>
       <c r="M9">
-        <v>1.01674156023991</v>
+        <v>0.9645481807789561</v>
       </c>
       <c r="N9">
-        <v>1.011541156265519</v>
+        <v>1.006159947968511</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.015042843025555</v>
+        <v>0.9728348232748621</v>
       </c>
       <c r="D10">
-        <v>1.031877473104138</v>
+        <v>1.02364343597783</v>
       </c>
       <c r="E10">
-        <v>1.016836837199394</v>
+        <v>0.9843209961812381</v>
       </c>
       <c r="F10">
-        <v>1.011163444277682</v>
+        <v>0.9385930092696695</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03235320717016</v>
+        <v>1.041468053571761</v>
       </c>
       <c r="J10">
-        <v>1.021522750041365</v>
+        <v>1.002169287688301</v>
       </c>
       <c r="K10">
-        <v>1.035337865934529</v>
+        <v>1.037598531408935</v>
       </c>
       <c r="L10">
-        <v>1.020352330381798</v>
+        <v>0.9989792303127868</v>
       </c>
       <c r="M10">
-        <v>1.014700192941777</v>
+        <v>0.9541671624275747</v>
       </c>
       <c r="N10">
-        <v>1.011276669561317</v>
+        <v>1.004775516272596</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.014457288683784</v>
+        <v>0.9696104274580416</v>
       </c>
       <c r="D11">
-        <v>1.031520890858011</v>
+        <v>1.021643719893361</v>
       </c>
       <c r="E11">
-        <v>1.016343915235058</v>
+        <v>0.9818100743851012</v>
       </c>
       <c r="F11">
-        <v>1.010149728582304</v>
+        <v>0.933191421630677</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03222572955288</v>
+        <v>1.040453714365272</v>
       </c>
       <c r="J11">
-        <v>1.02117680107701</v>
+        <v>1.000304470409044</v>
       </c>
       <c r="K11">
-        <v>1.03510467902914</v>
+        <v>1.036168693026648</v>
       </c>
       <c r="L11">
-        <v>1.019985450147218</v>
+        <v>0.9970833767991164</v>
       </c>
       <c r="M11">
-        <v>1.013815385425596</v>
+        <v>0.9494937039624165</v>
       </c>
       <c r="N11">
-        <v>1.011161839062598</v>
+        <v>1.004154913280245</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.014239774612262</v>
+        <v>0.9683968406353619</v>
       </c>
       <c r="D12">
-        <v>1.031388366893286</v>
+        <v>1.020892031312424</v>
       </c>
       <c r="E12">
-        <v>1.016160888404526</v>
+        <v>0.9808664472994946</v>
       </c>
       <c r="F12">
-        <v>1.009773135108651</v>
+        <v>0.9311519518557184</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032178078144166</v>
+        <v>1.040069823500195</v>
       </c>
       <c r="J12">
-        <v>1.021048175279749</v>
+        <v>0.9996016529374677</v>
       </c>
       <c r="K12">
-        <v>1.035017856448413</v>
+        <v>1.035629627767652</v>
       </c>
       <c r="L12">
-        <v>1.019849117442928</v>
+        <v>0.9963696316440581</v>
       </c>
       <c r="M12">
-        <v>1.013486591092259</v>
+        <v>0.9477287558502915</v>
       </c>
       <c r="N12">
-        <v>1.011119139984594</v>
+        <v>1.003921029717333</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.014286432711688</v>
+        <v>0.968657895024253</v>
       </c>
       <c r="D13">
-        <v>1.031416797032638</v>
+        <v>1.021053680840562</v>
       </c>
       <c r="E13">
-        <v>1.016200145269645</v>
+        <v>0.9810693654094688</v>
       </c>
       <c r="F13">
-        <v>1.009853918238817</v>
+        <v>0.9315909672017865</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032188313125832</v>
+        <v>1.040152496602292</v>
       </c>
       <c r="J13">
-        <v>1.021075771603331</v>
+        <v>0.99975287848803</v>
       </c>
       <c r="K13">
-        <v>1.035036489519148</v>
+        <v>1.035745625058313</v>
       </c>
       <c r="L13">
-        <v>1.019878363848415</v>
+        <v>0.9965231734791246</v>
       </c>
       <c r="M13">
-        <v>1.013557124890822</v>
+        <v>0.9481086945817819</v>
       </c>
       <c r="N13">
-        <v>1.011128301158775</v>
+        <v>1.003971353991524</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.014439309170051</v>
+        <v>0.969510442224861</v>
       </c>
       <c r="D14">
-        <v>1.031509937875167</v>
+        <v>1.021581769176833</v>
       </c>
       <c r="E14">
-        <v>1.016328784823504</v>
+        <v>0.981732301365654</v>
       </c>
       <c r="F14">
-        <v>1.010118600390151</v>
+        <v>0.933023529411078</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032221796800878</v>
+        <v>1.040422128867322</v>
       </c>
       <c r="J14">
-        <v>1.021166171377125</v>
+        <v>1.000246585720554</v>
       </c>
       <c r="K14">
-        <v>1.035097506456038</v>
+        <v>1.03612429816466</v>
       </c>
       <c r="L14">
-        <v>1.019974182005708</v>
+        <v>0.9970245763720681</v>
       </c>
       <c r="M14">
-        <v>1.013788210015382</v>
+        <v>0.9493484184332397</v>
       </c>
       <c r="N14">
-        <v>1.011158310479884</v>
+        <v>1.004135650171598</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.014533499665089</v>
+        <v>0.9700335874424466</v>
       </c>
       <c r="D15">
-        <v>1.031567315335912</v>
+        <v>1.021905949274989</v>
       </c>
       <c r="E15">
-        <v>1.016408052706061</v>
+        <v>0.9821392856746396</v>
       </c>
       <c r="F15">
-        <v>1.010281672426548</v>
+        <v>0.9339017116751437</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.0322423873871</v>
+        <v>1.040587305487129</v>
       </c>
       <c r="J15">
-        <v>1.021221853105846</v>
+        <v>1.000549412971477</v>
       </c>
       <c r="K15">
-        <v>1.035135073660084</v>
+        <v>1.036356545789301</v>
       </c>
       <c r="L15">
-        <v>1.020033211182634</v>
+        <v>0.997332225790079</v>
       </c>
       <c r="M15">
-        <v>1.013930570829765</v>
+        <v>0.9501083376960545</v>
       </c>
       <c r="N15">
-        <v>1.011176794130125</v>
+        <v>1.00423642676021</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.015081702496184</v>
+        <v>0.9730466399674048</v>
       </c>
       <c r="D16">
-        <v>1.031901127910938</v>
+        <v>1.023774924498747</v>
       </c>
       <c r="E16">
-        <v>1.016869560076421</v>
+        <v>0.9844861375984681</v>
       </c>
       <c r="F16">
-        <v>1.011230713949184</v>
+        <v>0.9389470059902462</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032361625266491</v>
+        <v>1.041534390134167</v>
       </c>
       <c r="J16">
-        <v>1.02154569200986</v>
+        <v>1.002291660294177</v>
       </c>
       <c r="K16">
-        <v>1.035353312757208</v>
+        <v>1.037692328125517</v>
       </c>
       <c r="L16">
-        <v>1.020376671000465</v>
+        <v>0.9991037450429922</v>
       </c>
       <c r="M16">
-        <v>1.014758895700761</v>
+        <v>0.9544733821825779</v>
       </c>
       <c r="N16">
-        <v>1.011284284040944</v>
+        <v>1.004816242659062</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.01542555221303</v>
+        <v>0.9749093621452745</v>
       </c>
       <c r="D17">
-        <v>1.032110387209546</v>
+        <v>1.02493185595096</v>
       </c>
       <c r="E17">
-        <v>1.017159169021778</v>
+        <v>0.9859394373819982</v>
       </c>
       <c r="F17">
-        <v>1.011825932045927</v>
+        <v>0.9420557403225372</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032435883948799</v>
+        <v>1.042116107066719</v>
       </c>
       <c r="J17">
-        <v>1.021748604884998</v>
+        <v>1.003367093602739</v>
       </c>
       <c r="K17">
-        <v>1.035489839182159</v>
+        <v>1.0385164188489</v>
       </c>
       <c r="L17">
-        <v>1.020592012335036</v>
+        <v>1.000198573977788</v>
       </c>
       <c r="M17">
-        <v>1.015278242409156</v>
+        <v>0.9571622064853678</v>
       </c>
       <c r="N17">
-        <v>1.011351627735422</v>
+        <v>1.005174159731979</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.015626105470093</v>
+        <v>0.9759863249280861</v>
       </c>
       <c r="D18">
-        <v>1.0322323963724</v>
+        <v>1.025601241731001</v>
       </c>
       <c r="E18">
-        <v>1.017328135194392</v>
+        <v>0.9867805444534353</v>
       </c>
       <c r="F18">
-        <v>1.012173081907604</v>
+        <v>0.9438496386411032</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032479004429416</v>
+        <v>1.042451049681644</v>
       </c>
       <c r="J18">
-        <v>1.021866880252121</v>
+        <v>1.003988276294979</v>
       </c>
       <c r="K18">
-        <v>1.035569339364465</v>
+        <v>1.038992227393938</v>
       </c>
       <c r="L18">
-        <v>1.020717580473944</v>
+        <v>1.000831432295327</v>
       </c>
       <c r="M18">
-        <v>1.015581083787574</v>
+        <v>0.9587135002247009</v>
       </c>
       <c r="N18">
-        <v>1.011390878643835</v>
+        <v>1.005380901147326</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.015694487510222</v>
+        <v>0.9763519522751049</v>
       </c>
       <c r="D19">
-        <v>1.032273990114074</v>
+        <v>1.025828575123098</v>
       </c>
       <c r="E19">
-        <v>1.017385755427854</v>
+        <v>0.987066243082611</v>
       </c>
       <c r="F19">
-        <v>1.012291445993514</v>
+        <v>0.9444581001713814</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032493674588468</v>
+        <v>1.042564524891154</v>
       </c>
       <c r="J19">
-        <v>1.021907195477239</v>
+        <v>1.004199065672991</v>
       </c>
       <c r="K19">
-        <v>1.035596424219764</v>
+        <v>1.039153649655335</v>
       </c>
       <c r="L19">
-        <v>1.020760389711459</v>
+        <v>1.001046263322938</v>
       </c>
       <c r="M19">
-        <v>1.015684330642225</v>
+        <v>0.9592396222836053</v>
       </c>
       <c r="N19">
-        <v>1.011404257178835</v>
+        <v>1.00545105649926</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.015388661267616</v>
+        <v>0.9747105021979121</v>
       </c>
       <c r="D20">
-        <v>1.032087940646428</v>
+        <v>1.024808292881819</v>
       </c>
       <c r="E20">
-        <v>1.017128092356013</v>
+        <v>0.9857841969414095</v>
       </c>
       <c r="F20">
-        <v>1.011762074002515</v>
+        <v>0.9417242244365348</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03242793669082</v>
+        <v>1.042054147669595</v>
       </c>
       <c r="J20">
-        <v>1.021726842557091</v>
+        <v>1.003252344679939</v>
       </c>
       <c r="K20">
-        <v>1.035475204976872</v>
+        <v>1.038428507758599</v>
       </c>
       <c r="L20">
-        <v>1.020568912054157</v>
+        <v>1.000081706372789</v>
       </c>
       <c r="M20">
-        <v>1.015222530225474</v>
+        <v>0.9568755000693981</v>
       </c>
       <c r="N20">
-        <v>1.011344405448239</v>
+        <v>1.005135969437036</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.014394291225071</v>
+        <v>0.9692598354101991</v>
       </c>
       <c r="D21">
-        <v>1.03148251223369</v>
+        <v>1.021426509533649</v>
       </c>
       <c r="E21">
-        <v>1.01629090184521</v>
+        <v>0.9815373912352687</v>
       </c>
       <c r="F21">
-        <v>1.010040659639959</v>
+        <v>0.9326026111925632</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032211944985872</v>
+        <v>1.040342927927972</v>
       </c>
       <c r="J21">
-        <v>1.021139554345713</v>
+        <v>1.000101486122089</v>
       </c>
       <c r="K21">
-        <v>1.035079544183683</v>
+        <v>1.036013010970896</v>
       </c>
       <c r="L21">
-        <v>1.01994596751944</v>
+        <v>0.9968771937347435</v>
       </c>
       <c r="M21">
-        <v>1.013720165039043</v>
+        <v>0.9489841707086301</v>
       </c>
       <c r="N21">
-        <v>1.011149474749899</v>
+        <v>1.004087363510323</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.013769015444738</v>
+        <v>0.9657402392695404</v>
       </c>
       <c r="D22">
-        <v>1.0311014311953</v>
+        <v>1.019248502713279</v>
       </c>
       <c r="E22">
-        <v>1.015764911024117</v>
+        <v>0.9788034877586601</v>
       </c>
       <c r="F22">
-        <v>1.008958020894241</v>
+        <v>0.9266745816126909</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032074403795034</v>
+        <v>1.039225655655716</v>
       </c>
       <c r="J22">
-        <v>1.020769580044018</v>
+        <v>0.9980614132413101</v>
       </c>
       <c r="K22">
-        <v>1.034829581806211</v>
+        <v>1.03444804988928</v>
       </c>
       <c r="L22">
-        <v>1.019553967613325</v>
+        <v>0.9948068801391182</v>
       </c>
       <c r="M22">
-        <v>1.012774770865377</v>
+        <v>0.9438534069646316</v>
       </c>
       <c r="N22">
-        <v>1.01102664844196</v>
+        <v>1.00340849323934</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.014100493140297</v>
+        <v>0.9676151578057083</v>
       </c>
       <c r="D23">
-        <v>1.031303489164581</v>
+        <v>1.020408153075446</v>
       </c>
       <c r="E23">
-        <v>1.016043712105671</v>
+        <v>0.9802590569536971</v>
       </c>
       <c r="F23">
-        <v>1.009531980185711</v>
+        <v>0.9298363810688518</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032147481627509</v>
+        <v>1.039821968550757</v>
       </c>
       <c r="J23">
-        <v>1.020965778928385</v>
+        <v>0.9991486954588873</v>
       </c>
       <c r="K23">
-        <v>1.034962204510688</v>
+        <v>1.035282169858171</v>
       </c>
       <c r="L23">
-        <v>1.019761805373327</v>
+        <v>0.9959098504605733</v>
       </c>
       <c r="M23">
-        <v>1.013276019450336</v>
+        <v>0.9465901636577065</v>
       </c>
       <c r="N23">
-        <v>1.011091786153306</v>
+        <v>1.003770298119246</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.015405330723922</v>
+        <v>0.9748003878336464</v>
       </c>
       <c r="D24">
-        <v>1.032098083431323</v>
+        <v>1.024864142473981</v>
       </c>
       <c r="E24">
-        <v>1.017142134433265</v>
+        <v>0.9858543636956285</v>
       </c>
       <c r="F24">
-        <v>1.011790928797342</v>
+        <v>0.9418740818728499</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03243152831205</v>
+        <v>1.04208215791567</v>
       </c>
       <c r="J24">
-        <v>1.021736676264274</v>
+        <v>1.003304213585199</v>
       </c>
       <c r="K24">
-        <v>1.035481817956493</v>
+        <v>1.038468246020148</v>
       </c>
       <c r="L24">
-        <v>1.020579350190447</v>
+        <v>1.000134531501632</v>
       </c>
       <c r="M24">
-        <v>1.015247704423911</v>
+        <v>0.9570051028895173</v>
       </c>
       <c r="N24">
-        <v>1.01134766898015</v>
+        <v>1.005153232233172</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.016919189657705</v>
+        <v>0.9827672471575299</v>
       </c>
       <c r="D25">
-        <v>1.033018267631323</v>
+        <v>1.029823109251525</v>
       </c>
       <c r="E25">
-        <v>1.018418444512464</v>
+        <v>0.9920911830862328</v>
       </c>
       <c r="F25">
-        <v>1.014411125661084</v>
+        <v>0.9550901356515117</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032753562038509</v>
+        <v>1.044534657016372</v>
       </c>
       <c r="J25">
-        <v>1.022628110165565</v>
+        <v>1.007888813097874</v>
       </c>
       <c r="K25">
-        <v>1.03607956484805</v>
+        <v>1.041975450857629</v>
       </c>
       <c r="L25">
-        <v>1.021526620088533</v>
+        <v>1.004813526620602</v>
       </c>
       <c r="M25">
-        <v>1.017532426973037</v>
+        <v>0.9684280681297801</v>
       </c>
       <c r="N25">
-        <v>1.011643448133758</v>
+        <v>1.006679119012957</v>
       </c>
     </row>
   </sheetData>
